--- a/FinalReport/export.xlsx
+++ b/FinalReport/export.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Post_Headers" sheetId="2" r:id="rId1"/>
-    <sheet name="posts.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="posts.csv " sheetId="5" r:id="rId2"/>
     <sheet name="Users_Headers" sheetId="3" r:id="rId3"/>
-    <sheet name="users.csv" sheetId="4" r:id="rId4"/>
+    <sheet name="users.csv" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="521">
   <si>
     <t>Hello</t>
   </si>
@@ -301,1168 +301,1300 @@
   </si>
   <si>
     <t>Status about about frustrations with CMU Health services</t>
+  </si>
+  <si>
+    <t>Not really</t>
+  </si>
+  <si>
+    <t>Had just returned from health services, was about to do more work</t>
+  </si>
+  <si>
+    <t>Had just returned from a trip to health services and was somewhat displeased. Considered venting about it on the book</t>
+  </si>
+  <si>
+    <t>She really didn't want it posted</t>
+  </si>
+  <si>
+    <t>Friends with young children</t>
+  </si>
+  <si>
+    <t>At home</t>
+  </si>
+  <si>
+    <t>Trying to calm down daughter</t>
+  </si>
+  <si>
+    <t>Youngest daughter threw a fit again, husband recorded video on his phone and threatened to post it on FB</t>
+  </si>
+  <si>
+    <t>Wall post to brother in law thanking him for filming the other day</t>
+  </si>
+  <si>
+    <t>No reason to post it to FB; I e-mailed him instead</t>
+  </si>
+  <si>
+    <t>CMU, in my office</t>
+  </si>
+  <si>
+    <t>Work, most likely</t>
+  </si>
+  <si>
+    <t>My brother in law, while visiting over thanksgiving, filmed my father and I eating extremely spicy food. It was hilarious and I wanted to thank him for doing so.</t>
+  </si>
+  <si>
+    <t>Posting about the weather is boring.</t>
+  </si>
+  <si>
+    <t>Other people in Pittsburgh who might also have noticed the strange weather.</t>
+  </si>
+  <si>
+    <t>At work</t>
+  </si>
+  <si>
+    <t>Sitting in my office</t>
+  </si>
+  <si>
+    <t>I noticed the weather kept changing today. It would get bright and then really dark.</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something I said to one of my students </t>
+  </si>
+  <si>
+    <t>I didn't want the student to find out I posted it.</t>
+  </si>
+  <si>
+    <t>The student I was talking to.</t>
+  </si>
+  <si>
+    <t>Other faculty members.</t>
+  </si>
+  <si>
+    <t>In my office</t>
+  </si>
+  <si>
+    <t>reading facebook</t>
+  </si>
+  <si>
+    <t>I was pleased about something I thought of to say to a student.</t>
+  </si>
+  <si>
+    <t>Status post re amusing due date mix up</t>
+  </si>
+  <si>
+    <t>I wasn't near a computer (and it seemed too long to text) and lord knows I don't quite need more people thinking I'm an idiot :)</t>
+  </si>
+  <si>
+    <t>Probably my parents. I was working like a dog during Thanksgiving break and if they found out this thing was due later than I thought they might be a bit annoyed.</t>
+  </si>
+  <si>
+    <t>Behavioral Economics class</t>
+  </si>
+  <si>
+    <t>Taking notes :)</t>
+  </si>
+  <si>
+    <t>I've been working every spare moment on a class project/paper I thought was due on Wednesday, the 30th, including forgoing sleep the night before. I finished it about an hour before the class, and then discovered (10 minutes before the class) that it's actually due next week, and my copy of the syllabus was dated. This actually struck me as hilarious at the time, so I considered posting it on FB.</t>
+  </si>
+  <si>
+    <t>Status post re exhaustion and like of desire to work</t>
+  </si>
+  <si>
+    <t>Don't really care for whiny posts. Empathy is nice i guess but I don't want to get it from FB.</t>
+  </si>
+  <si>
+    <t>Peers who'd think I'm being whiny?</t>
+  </si>
+  <si>
+    <t>Rehearsal (Heinz Hall, downtown)</t>
+  </si>
+  <si>
+    <t>Waiting to receive notes from the director on the night's run</t>
+  </si>
+  <si>
+    <t>This should've been 'lack of desire'. At this point had been awake for about 40 hours straight and busy the entire time - working, meetings, or rehearsing. Was totally burnt out and thought about whining about it on the book.</t>
+  </si>
+  <si>
+    <t>Status update "need to ptfo already. This week neeeeeeeeds to end! "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People dont need to know every aspect about my life. Even though people would probably "like" my status, I felt it was just unnecessary to post. </t>
+  </si>
+  <si>
+    <t>In my room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went to sleep right after </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am running on 2 hours of sleep, and felt really stressed with all the other things that I needed to still do. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rip Charlie :( you were a good car. Looks like its the bus for now. (status update) </t>
+  </si>
+  <si>
+    <t>Don't like to complain on facebook</t>
+  </si>
+  <si>
+    <t>Old friends who might be happy</t>
+  </si>
+  <si>
+    <t>My friends now who might help</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>sitting online</t>
+  </si>
+  <si>
+    <t>My car broke and isn't worth fixing</t>
+  </si>
+  <si>
+    <t>Comment on friends wall "we are meant to be roommates. I come home to ptfo and there you are already ptfoed lols. Love you!"</t>
+  </si>
+  <si>
+    <t>too tired</t>
+  </si>
+  <si>
+    <t>my roommate</t>
+  </si>
+  <si>
+    <t>in my bed</t>
+  </si>
+  <si>
+    <t>sleeping</t>
+  </si>
+  <si>
+    <t>Wanted to pos on my roommates wall that we are so similar and meant to be!</t>
+  </si>
+  <si>
+    <t>Status Update:  Can't believe dubstep is even being recognized at the Grammy's.  What happened to music?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did not want to offend fans of that genre of music.  I thought it may have been too insensitive.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, as described before, fans of "dubstep" music.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, fans of rock music.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was in my bedroom.  </t>
+  </si>
+  <si>
+    <t>I was surfing the internet recapping last night's Grammy Nominations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was disappointed by last night's Grammy Nomination show.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So annoyed and unhappy </t>
+  </si>
+  <si>
+    <t>Don't like to seem moody</t>
+  </si>
+  <si>
+    <t>Ex-friends</t>
+  </si>
+  <si>
+    <t>Current friends</t>
+  </si>
+  <si>
+    <t>Upset that I wasted my time not doing homework and that I don't have a car</t>
+  </si>
+  <si>
+    <t>Fainted today in chem class. No big deal</t>
+  </si>
+  <si>
+    <t>I didn't think it was appropriate to post it on my facebook for everyone to see, and I didn't want people asking questions or overreacting.</t>
+  </si>
+  <si>
+    <t>My parents, family members.</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>My room</t>
+  </si>
+  <si>
+    <t>Homework</t>
+  </si>
+  <si>
+    <t>I fainted in my chemistry class today after attempting to clean a cut obtained by handling broken glass. I saw the blood and felt queasy and fainted.</t>
+  </si>
+  <si>
+    <t>"Pahahahaha Mel Gibson" to my friend emily's wall</t>
+  </si>
+  <si>
+    <t>Unnecessary</t>
+  </si>
+  <si>
+    <t>My friend Emily and 2 other friends that would also understand the context.</t>
+  </si>
+  <si>
+    <t>didnt feel like it</t>
+  </si>
+  <si>
+    <t>Studying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was an inside joke between my friend Emily and I. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetris is ruining my life - status post </t>
+  </si>
+  <si>
+    <t>it defeats the point of saying it on facebook because it still means that i'm distracted</t>
+  </si>
+  <si>
+    <t>my friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in my room </t>
+  </si>
+  <si>
+    <t>playing tetris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was playing a lot of tetris instead of studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A victim treats his mugger right- link via npr news </t>
+  </si>
+  <si>
+    <t>because so many people shared it already</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>on facebook</t>
+  </si>
+  <si>
+    <t>it was a newspaper article</t>
+  </si>
+  <si>
+    <t>Status: wasnt interesting enough</t>
+  </si>
+  <si>
+    <t>I didn't think it was interesting enough. Didnt really add any value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one in particular, but didnt post becuase didn;t think others would care. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my room. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking my email. </t>
+  </si>
+  <si>
+    <t>I thought about updating my status about how I was glad my week was finally over.  TGIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment on a friends profile picture im in: will write cute comment later when not so busy With school </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wanted to write some thing sweet and meaningful  on the picture. </t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The four friends that were tagged in the picture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting ready to  go to class, was running late, so didnt post the message. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A friend updated her profile picture to a  picture of my three friends and I. My four best friends. </t>
+  </si>
+  <si>
+    <t>I am stuck looking like a retard trying to unzip my stuck jacket. Status update</t>
+  </si>
+  <si>
+    <t>it was unneccesary</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>at the library</t>
+  </si>
+  <si>
+    <t>just doing work</t>
+  </si>
+  <si>
+    <t>My jacket zipper got stuck and i tried so hard to unzip it</t>
+  </si>
+  <si>
+    <t>This is hilarious! - an old picture of my friend at her brother's graduation where the family looks goofy</t>
+  </si>
+  <si>
+    <t>I don't know some of the people who commented on the picture</t>
+  </si>
+  <si>
+    <t>The people I didn't know</t>
+  </si>
+  <si>
+    <t>my friend</t>
+  </si>
+  <si>
+    <t>On my phone</t>
+  </si>
+  <si>
+    <t>Eating breakfast</t>
+  </si>
+  <si>
+    <t>my friend's brother has a funny hairdo in the picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes people suck </t>
+  </si>
+  <si>
+    <t>Didn't want people to think it was about them</t>
+  </si>
+  <si>
+    <t>My boss</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Sitting online</t>
+  </si>
+  <si>
+    <t>My boss was annoying me</t>
+  </si>
+  <si>
+    <t>Status Update: "i swear i just heard Link yell 'bitch' as he stabbed a giant spider"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seemed less interesting after the thought passed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My gamer friends and boyfriend. </t>
+  </si>
+  <si>
+    <t>Drinking coffee watching colbert report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was watching an add for a video game and thought i heard the main character swear so i was going to comment. </t>
+  </si>
+  <si>
+    <t>Video clip of Colbert Report-anti piracy laws debate</t>
+  </si>
+  <si>
+    <t>Not enough time to search for a share-able clip</t>
+  </si>
+  <si>
+    <t>Cmu students</t>
+  </si>
+  <si>
+    <t>Drinking coffee</t>
+  </si>
+  <si>
+    <t>I was watching an episode of colbert report and a clip came up that reminded me about a controversial convo</t>
+  </si>
+  <si>
+    <t>Why do i even study? - status update decided not to post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because I didn't want pity from my friends.  </t>
+  </si>
+  <si>
+    <t>walking from class</t>
+  </si>
+  <si>
+    <t>wondering why i failed it even if i studied a lot</t>
+  </si>
+  <si>
+    <t>I failed my test</t>
+  </si>
+  <si>
+    <t>My lab ta told me she thinks of me as her little sister. I feel happy</t>
+  </si>
+  <si>
+    <t>status update</t>
+  </si>
+  <si>
+    <t>all my FB friends</t>
+  </si>
+  <si>
+    <t>In case people were interested in watching the live stream of the event</t>
+  </si>
+  <si>
+    <t>post about speaking at a conference today</t>
+  </si>
+  <si>
+    <t>Posting some pictures, not appropriate for facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn't upload the ones with alcohol or the ones we looked really bad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't want people that weren't in those pictures seeing them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The friends that the pictures were of. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My room. </t>
+  </si>
+  <si>
+    <t>Watching TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was uploading pictures from the last two months. </t>
+  </si>
+  <si>
+    <t>Forgot my wallet again- status update</t>
+  </si>
+  <si>
+    <t>I thought it will make me look stupid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">people that already knows that I make mistakes like that often </t>
+  </si>
+  <si>
+    <t>I just wanted to vent</t>
+  </si>
+  <si>
+    <t>walking in the street</t>
+  </si>
+  <si>
+    <t>waiting for the coffee the other person paid instead</t>
+  </si>
+  <si>
+    <t>Forgot my wallet when I promised someone that I will pay for that coffee</t>
+  </si>
+  <si>
+    <t>Video clip of my friend's AKA probate</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>My last response was for this survey (see response about AKA video)</t>
+  </si>
+  <si>
+    <t>It's too long</t>
+  </si>
+  <si>
+    <t>Anyome who might make inappropriate comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The group of friends who attended with me and the girl in it. I wanted to support her in her new sorority. </t>
+  </si>
+  <si>
+    <t>Carnegie mellon university's campus</t>
+  </si>
+  <si>
+    <t>Hanging out with friends</t>
+  </si>
+  <si>
+    <t>I attended my friends AKA probate tonight and was going to submit a video of her performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnecessary </t>
+  </si>
+  <si>
+    <t>My friends</t>
+  </si>
+  <si>
+    <t>at the restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eating </t>
+  </si>
+  <si>
+    <t>"Going to eat my #25 worth." There was a banquet tonight for all you can eat bbq for 25 dollars</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show everyone a picture of me and my mentee at banquet </t>
+  </si>
+  <si>
+    <t>Mentee!</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>my high school friends</t>
+  </si>
+  <si>
+    <t>to cheer them up with a funny story</t>
+  </si>
+  <si>
+    <t>I sent an inbox to my high school friends describing my life</t>
+  </si>
+  <si>
+    <t>Just thought some of my friends would be interested</t>
+  </si>
+  <si>
+    <t>Posted about going to the airport in Denver with FTC commissioner</t>
+  </si>
+  <si>
+    <t>Was very busy; working in the morning, lunch meeting, folks visiting, then a performance downtown.</t>
+  </si>
+  <si>
+    <t>Life's too short to be spent thinking about sharing it all the time :)</t>
+  </si>
+  <si>
+    <t>Programming can smd. Status update</t>
+  </si>
+  <si>
+    <t>Did not feel like it was necessary.</t>
+  </si>
+  <si>
+    <t>My parents</t>
+  </si>
+  <si>
+    <t>Other people in programming that would understand what I was talking about/are suffering the same thing</t>
+  </si>
+  <si>
+    <t>Working on programming in the library</t>
+  </si>
+  <si>
+    <t>programming homework</t>
+  </si>
+  <si>
+    <t>Working on programming homework, and it was super frustrating. I could not solve my problem</t>
+  </si>
+  <si>
+    <t>Status Update:  The Steelers are the only team that matters in the NFL.</t>
+  </si>
+  <si>
+    <t>I decided not to post this because it would offend my friends from Cincinnati.</t>
+  </si>
+  <si>
+    <t>Yes, my Cincinnati friends.</t>
+  </si>
+  <si>
+    <t>Yes, my friends from Pittsburgh.</t>
+  </si>
+  <si>
+    <t>I was at my house.</t>
+  </si>
+  <si>
+    <t>I was watching the football game on television.</t>
+  </si>
+  <si>
+    <t>I was watching the Steelers-Bengals game on TV and this status came to mind.  When the Steelers were winning 35-7, I thought this would be an appropriate status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because I didn't want my family to see it and know I was slacking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My law school friends who are crazy about studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At my apartment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watching football </t>
+  </si>
+  <si>
+    <t>I tried to text in "havent started studying yet"</t>
+  </si>
+  <si>
+    <t>Wallpost of Web page for iRobot Scooba</t>
+  </si>
+  <si>
+    <t>I couldn't easily find a link specifically for this product. Home.woot.com changes its product daily so if someone clicked tomorrow it wouldnt be the same</t>
+  </si>
+  <si>
+    <t>My roommates and boyfriend</t>
+  </si>
+  <si>
+    <t>At home in bed</t>
+  </si>
+  <si>
+    <t>Trying to study for an exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wanted to post information/video ad of the iRobot Scooba (a floor washing robot) that i found on woot.com. </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone on myu friends list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a the lyrics (chorus) of a song that came on while I was at the bar. I like to post lyrics of songs that are playing when I am out. </t>
+  </si>
+  <si>
+    <t>"Living in the fast lane I'm for real"</t>
+  </si>
+  <si>
+    <t>I didn't have enough time</t>
+  </si>
+  <si>
+    <t>yes, the people in the pictures</t>
+  </si>
+  <si>
+    <t>my room</t>
+  </si>
+  <si>
+    <t>homework</t>
+  </si>
+  <si>
+    <t>I did not post pictures from this weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was going to write something on someones wall but didn't because it wasn't really amusing, and was embarrassed of other people seeing it. It was a personal thing and didn't need to be shared. </t>
+  </si>
+  <si>
+    <t>Her ex boyfriend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the library </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was going to write on the wall of a friend who just broke up withe her boyfriend. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God thank u for using even my studies as a means to bring me a little closer to u- status update </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not too long ago maybe couple minutes ago.  </t>
+  </si>
+  <si>
+    <t>people who may not be so religious that might be offended by my post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everyone </t>
+  </si>
+  <si>
+    <t>in front of my friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking to my friends </t>
+  </si>
+  <si>
+    <t>I was having a really hard time with having to study for finals and prayed and wanted to post it on facebook to share</t>
+  </si>
+  <si>
+    <t>I wanted to go see tba today but would rather not be judged for going</t>
+  </si>
+  <si>
+    <t>"sometimes I wake up a little early because I am curious as to whether or not people have liked my statuses #loser" fb status</t>
+  </si>
+  <si>
+    <t>It made me look like a loser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People that may have made fun of me. </t>
+  </si>
+  <si>
+    <t>People that might empathize.</t>
+  </si>
+  <si>
+    <t>In front of my computer.</t>
+  </si>
+  <si>
+    <t>Looking at computer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had posted a status overnight and noticed that I had woken up early just to see if anyone had liked it. </t>
+  </si>
+  <si>
+    <t>Status Update:  I can't believe Gellar doesn't actually exist in Dexter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very crucial piece of information in the season and I didn't want to ruin it for people who haven't watched the episode yet.  </t>
+  </si>
+  <si>
+    <t>Yes, people who have not yet watched this episode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, people who have already seen this episode.  </t>
+  </si>
+  <si>
+    <t>I was in my house.</t>
+  </si>
+  <si>
+    <t>I was watching the TV show on my computer in my bedroom.</t>
+  </si>
+  <si>
+    <t>I was watching Dexter Season 8 Episode 9 on my computer and was stunned reflecting on this.</t>
+  </si>
+  <si>
+    <t>Status update: 'double fisting in the morning!'</t>
+  </si>
+  <si>
+    <t>On second thought, no one would really get it if they weren't there.</t>
+  </si>
+  <si>
+    <t>Forbes Ave.</t>
+  </si>
+  <si>
+    <t>Walking to class/drinking water and a latte</t>
+  </si>
+  <si>
+    <t>I was walking down Forbes Ave. this morning with a latte in one hand and a cup of water in the other. I felt a bit silly and giggled to myself at the thought of "double-fisting".</t>
+  </si>
+  <si>
+    <t>Grrrrrrr</t>
+  </si>
+  <si>
+    <t>Didn't want him to feel bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My boyfriend </t>
+  </si>
+  <si>
+    <t>At school</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>My boyfriend me his competition date had switched and he was going to miss our formal in the spring</t>
+  </si>
+  <si>
+    <t>Somebody come visit me at work! Boreddddd. Status update</t>
+  </si>
+  <si>
+    <t>Didn't want certain people to see it since im not allowed to have people over when Im working</t>
+  </si>
+  <si>
+    <t>Yes... my boss</t>
+  </si>
+  <si>
+    <t>friends!</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>I was working and I wanted someone to come keep me company due to the fact that I was really bored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So sleep and stressed.  why do all the professors try to cram in everything before finals week? </t>
+  </si>
+  <si>
+    <t>Afraid that my professors might have facebook and see my post</t>
+  </si>
+  <si>
+    <t>my professors</t>
+  </si>
+  <si>
+    <t>no one in particular</t>
+  </si>
+  <si>
+    <t>in the lab</t>
+  </si>
+  <si>
+    <t>studying</t>
+  </si>
+  <si>
+    <t>Very stressed out because all the professors have tried to cram in their tests before finals week.  one of them actually got moved form finals week to the same day as my other final this week.</t>
+  </si>
+  <si>
+    <t>Wall post: a cow based economics lesson</t>
+  </si>
+  <si>
+    <t>It was really long and I already shared a lot of content today so I thought I'd be annoying people.</t>
+  </si>
+  <si>
+    <t>My boyfriend and roommate</t>
+  </si>
+  <si>
+    <t>browsing the web</t>
+  </si>
+  <si>
+    <t>There's a funny post I found on Google+ describing different economies using the example of "You have two cows...". I thought it would be cute to share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It might have embarrassed a friend. He had given me $500 for no reason. Absolutely no reason. He is a weird guy that does random stuff like that. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah my friend, Zack. </t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Out eating at Moe's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eating at Moe's, had just got off of the phone with Zack. </t>
+  </si>
+  <si>
+    <t>Facebook Status: "Just received $500. It's a good day."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some people would've asked me about it who I'd rather not explain it to </t>
+  </si>
+  <si>
+    <t>One or two other people I had previously dated (+4 months ago) that (and I'm assuming) might be a bit upset to see me dating someone else (and enjoying it)</t>
+  </si>
+  <si>
+    <t>Maybe the girl herself?</t>
+  </si>
+  <si>
+    <t>My room, at home</t>
+  </si>
+  <si>
+    <t>Working and chatting online</t>
+  </si>
+  <si>
+    <t>Early this 'morning' (1:00 AM) had been talking online with a a girl I've gone on a few dates with online. The conversation left me in a good mood, and I thought about posting something about it as my status - some sort of status update.</t>
+  </si>
+  <si>
+    <t>Status update: i'd be just fine if my professors decided to just grade me on my progress so far and forget about all this 'finals' nonsense. Ive proven m</t>
+  </si>
+  <si>
+    <t>Posted too much to facebook in the past few hours.</t>
+  </si>
+  <si>
+    <t>anyone not wanting to study</t>
+  </si>
+  <si>
+    <t>browsing the internet/procrastinating</t>
+  </si>
+  <si>
+    <t>I was getting exhausted thinking of work and figured everyone else could relate at this time of year.</t>
+  </si>
+  <si>
+    <t>yself to this point!!</t>
+  </si>
+  <si>
+    <t>this is part of my previous message...</t>
+  </si>
+  <si>
+    <t>Status: I hate it when I have a song in my head but only know the tune and not the lyrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eh, I go back and forth between posting the minutiae of my life and not posting the minutiae of my life. This time the not posting won out. </t>
+  </si>
+  <si>
+    <t>Nope.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people who related to it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At work. </t>
+  </si>
+  <si>
+    <t>Surfing the internet.</t>
+  </si>
+  <si>
+    <t>There was a song that was playing when I was at this website and now not only can I not find the song, but the tune is still in my head!</t>
+  </si>
+  <si>
+    <t>Didn't post a status about my huge project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant believe my TA.  now im not gonna get an A in that course </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have recently saw a documentary on Facebook where a highschool teacher lost a job because she posted something about her students and thought the privacy setting was on but Facebook switched it to "public".  My TA has facebook.  It would be really bad if this got out. </t>
+  </si>
+  <si>
+    <t>my TA</t>
+  </si>
+  <si>
+    <t>Talking to to my TA</t>
+  </si>
+  <si>
+    <t>The TA graded one of the reports very harshly.  A lot of students were complaining about the reports.</t>
+  </si>
+  <si>
+    <t>This week is going by too fast!!! :(</t>
+  </si>
+  <si>
+    <t>clogging up fb newsfeed</t>
+  </si>
+  <si>
+    <t>people who also feel the same way</t>
+  </si>
+  <si>
+    <t>in the lounge</t>
+  </si>
+  <si>
+    <t>"studying"</t>
+  </si>
+  <si>
+    <t>I have so many tests and quizzes and presentations this week. I feel like im not prepared for them.</t>
+  </si>
+  <si>
+    <t>Studying= me jamming by myself in the mw lounge :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embarrassing. </t>
+  </si>
+  <si>
+    <t>friends in my class who would come join me</t>
+  </si>
+  <si>
+    <t>I was studying for a math test in the lounge and I was the only one in there. I was also listening to music and a song that I really liked was playing, so I was rocking out to it.</t>
+  </si>
+  <si>
+    <t>comment on a status</t>
+  </si>
+  <si>
+    <t>My friends in Chicago</t>
+  </si>
+  <si>
+    <t>To let me them know I am thinking about them</t>
+  </si>
+  <si>
+    <t>I posted "Wish I could be there with you guys!" and "If I could swing it I totally would! Being a full-time student SUCKS!"</t>
+  </si>
+  <si>
+    <t>Reply to wall post: you don't have to get me anything! I can't wait to see you :)</t>
+  </si>
+  <si>
+    <t>I was too tired to figure out wording.</t>
+  </si>
+  <si>
+    <t>my aunt (the person i was replying to)</t>
+  </si>
+  <si>
+    <t>Getting ready for bed</t>
+  </si>
+  <si>
+    <t>My aunt posted on my wall "What do you want for Christmas?" I was going to reply to tell her I don't need her to get me anything.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>sms_date</t>
+  </si>
+  <si>
+    <t>sms_body</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>np1</t>
+  </si>
+  <si>
+    <t>np2</t>
+  </si>
+  <si>
+    <t>np3</t>
+  </si>
+  <si>
+    <t>nn1</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>long_description</t>
+  </si>
+  <si>
+    <t>post_date</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>doneparticipating</t>
+  </si>
+  <si>
+    <t>1157fb24921249c141ed1e9279858dd7</t>
+  </si>
+  <si>
+    <t>sauvik@cmu.edu</t>
+  </si>
+  <si>
+    <t>68cf9e4c963b5adae77cd6851442a4d2</t>
+  </si>
+  <si>
+    <t>Me@rebeccahunt.com</t>
+  </si>
+  <si>
+    <t>5b0a362a998f6a4cc27a368cbc7618c9</t>
+  </si>
+  <si>
+    <t>wiese@cmu.edu</t>
+  </si>
+  <si>
+    <t>4854ece7349662017374286da5b58432</t>
+  </si>
+  <si>
+    <t>Lorrie@cmu.edu</t>
+  </si>
+  <si>
+    <t>9e6d88f850a38af7473dc164a80a125d</t>
+  </si>
+  <si>
+    <t>dggordon@cmu.edu</t>
+  </si>
+  <si>
+    <t>d003b6b57c70cbb8cbe295bd74018852</t>
+  </si>
+  <si>
+    <t>Lem81@pitt.edu</t>
+  </si>
+  <si>
+    <t>1f033555c763582a8b39f7d313079671</t>
+  </si>
+  <si>
+    <t>Apriljianto@gmail.com</t>
+  </si>
+  <si>
+    <t>25d1828d65587451f33c4a32fdf4141c</t>
+  </si>
+  <si>
+    <t>Jdotpitts@gmail.com</t>
+  </si>
+  <si>
+    <t>3e5b799cd83dca724747e96ffeadaaf8</t>
+  </si>
+  <si>
+    <t>Rissa543@gmail.com</t>
+  </si>
+  <si>
+    <t>04b8bd7493f26b8d86c9f3ba101a20ce</t>
+  </si>
+  <si>
+    <t>Ams224@gmail.com</t>
+  </si>
+  <si>
+    <t>398a58bba9323cd8a2879a1608655049</t>
+  </si>
+  <si>
+    <t>agoginen@andrew.cmu.edu</t>
+  </si>
+  <si>
+    <t>a4e391df6b62854089b58df2e4448e26</t>
+  </si>
+  <si>
+    <t>Danielcsmyers@gmail.com</t>
+  </si>
+  <si>
+    <t>cd21bb32a6b72ff9ece403d1b812cc96</t>
+  </si>
+  <si>
+    <t>Yookyung@andrew.cmu.edu</t>
+  </si>
+  <si>
+    <t>90d076c46f032821de7e04b932912239</t>
+  </si>
+  <si>
+    <t>Afinger@andrew.cmu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happened to the other texts I was explaining?  (It got deleted) anyways, I texted "so sleepy" or something like that.  Just very tired and stressed.  Overwhelmed with schoolwork.  Got two hours of sleep in the past two days.  </t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>I don't want pity.  And they will wonder why i'm on facebook and not studying or doing soemeting useuful.</t>
+  </si>
+  <si>
+    <t>"Just joined Amazon Prime!. Now we'll see how often I use this service!"</t>
+  </si>
+  <si>
+    <t>Surfing the internet, buying stuff off of Amazon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At work. At my desk. </t>
+  </si>
+  <si>
+    <t>Not really... maybe the people that would have given me some feedback on Amazon Prime.</t>
+  </si>
+  <si>
+    <t>Not really.</t>
+  </si>
+  <si>
+    <t>I actually did post it... then I deleted it five minutes later. That's why I didn't text it in. I deleted it because I thought it was boring.</t>
+  </si>
+  <si>
+    <t>slept for 2 hours in two days.  Very very tired and stressed</t>
+  </si>
+  <si>
+    <t>in the library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because people may wonder why I'm posting this on Facebook and not studying or studying or doing something useful. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want to sleep.... So badly.... </t>
+  </si>
+  <si>
+    <t>I was watching ESPN Sportscenter and this came to mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was watching ESPN Sportscenter.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was at my house, in my bedroom.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wanted my friends who have the same viewpoint as me to see this post.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not necessarily. I that know people have strong opinions on this issue and did not want to start a discussion.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did not want to start an argument on my Facebook wall.  </t>
+  </si>
+  <si>
+    <t>Status Update:  I'm sick of hearing about Tim Tebow.</t>
+  </si>
+  <si>
+    <t>Hope you are sleeping peacefully...</t>
+  </si>
+  <si>
+    <t>I was really frustrated that I was studying for my math test, but there also a culmination of other tests and finals that I have yet studied for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in the library</t>
+  </si>
+  <si>
+    <t>people who were in the same boat</t>
+  </si>
+  <si>
+    <t>Studying was more important</t>
+  </si>
+  <si>
+    <t>Can't believe I have 3 tests AND finals NEXT week</t>
+  </si>
+  <si>
+    <t>I was studying for a math test that I was not really understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studying math </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the library studying </t>
+  </si>
+  <si>
+    <t>people who would agree</t>
+  </si>
+  <si>
+    <t>i decided to get off fb and study</t>
+  </si>
+  <si>
+    <t>Sjksdjjdjsjsjjdjd math test!!!!</t>
+  </si>
+  <si>
+    <t>Chem presentation went well today!! But now I don't know what to do with my life considering the class I stressed about for the past 3 months is now over.</t>
+  </si>
+  <si>
+    <t>I had just woken up from a nap and was on facebook</t>
+  </si>
+  <si>
+    <t>I didn't want people to think I really "had" nothing else to do considering it's finals week and people would get pissed at me for being a "humanities" major and think I really had nothing to do while they actually had tons of work.</t>
+  </si>
+  <si>
+    <t>1) I was going to comment on a post someone wrote on my wall.
+2) I was going to write on a friends walls, but stopped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Study break
+2) In class
+</t>
+  </si>
+  <si>
+    <t>1) Library
+2) Classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) N/A
+3)The person whose wall I posted on </t>
+  </si>
+  <si>
+    <t>1) The person who posted on my wall
+2) N/A</t>
+  </si>
+  <si>
+    <t>1) My response would've been 3 minutes after she posted, so I decided to wait.
+2)I was going to write something else on her wall for her birthday, so decided to wait till then. Instead of two posts, it would have been synthesized to 1.</t>
+  </si>
+  <si>
+    <t>TBA is the AB Tech films event where they show porn as the film in the UC but I decided not to go because I thought it would be awkward and I didn't want to be judged as a female for going.</t>
+  </si>
+  <si>
+    <t>Browsing sites</t>
+  </si>
+  <si>
+    <t>Morewood cluster</t>
+  </si>
+  <si>
+    <t>Family members (although they wouldn't know what it was-- I didn't want people to comment on it giving htem a sense of what it was)</t>
+  </si>
+  <si>
+    <t>I didn't want to be judged for wanting to go see TBA.</t>
+  </si>
+  <si>
+    <t>My lab teaching assistant told me that when I fainted in class and she caught me that she felt as if she was catching her little sister. This made me feel special to know that we got to know each other on an even deeper level than just regular teacher assistant/student.</t>
+  </si>
+  <si>
+    <t>Chem Lab homework</t>
+  </si>
+  <si>
+    <t>Morewood Cluster</t>
+  </si>
+  <si>
+    <t>I didn't want people to think that she was showing me favoritism/ I didn't think people outside of CMU would care.</t>
   </si>
   <si>
     <t>Many reasons
 1.) It would accomplish nothing
 2.) I should have better control of my emotions
 3.) Wasn't super keen on explaining why I went to health services in the first place</t>
-  </si>
-  <si>
-    <t>Not really</t>
-  </si>
-  <si>
-    <t>Had just returned from health services, was about to do more work</t>
-  </si>
-  <si>
-    <t>Had just returned from a trip to health services and was somewhat displeased. Considered venting about it on the book</t>
-  </si>
-  <si>
-    <t>She really didn't want it posted</t>
-  </si>
-  <si>
-    <t>Friends with young children</t>
-  </si>
-  <si>
-    <t>At home</t>
-  </si>
-  <si>
-    <t>Trying to calm down daughter</t>
-  </si>
-  <si>
-    <t>Youngest daughter threw a fit again, husband recorded video on his phone and threatened to post it on FB</t>
-  </si>
-  <si>
-    <t>Wall post to brother in law thanking him for filming the other day</t>
-  </si>
-  <si>
-    <t>No reason to post it to FB; I e-mailed him instead</t>
-  </si>
-  <si>
-    <t>CMU, in my office</t>
-  </si>
-  <si>
-    <t>Work, most likely</t>
-  </si>
-  <si>
-    <t>My brother in law, while visiting over thanksgiving, filmed my father and I eating extremely spicy food. It was hilarious and I wanted to thank him for doing so.</t>
-  </si>
-  <si>
-    <t>Posting about the weather is boring.</t>
-  </si>
-  <si>
-    <t>Other people in Pittsburgh who might also have noticed the strange weather.</t>
-  </si>
-  <si>
-    <t>At work</t>
-  </si>
-  <si>
-    <t>Sitting in my office</t>
-  </si>
-  <si>
-    <t>I noticed the weather kept changing today. It would get bright and then really dark.</t>
-  </si>
-  <si>
-    <t>np</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Something I said to one of my students </t>
-  </si>
-  <si>
-    <t>I didn't want the student to find out I posted it.</t>
-  </si>
-  <si>
-    <t>The student I was talking to.</t>
-  </si>
-  <si>
-    <t>Other faculty members.</t>
-  </si>
-  <si>
-    <t>In my office</t>
-  </si>
-  <si>
-    <t>reading facebook</t>
-  </si>
-  <si>
-    <t>I was pleased about something I thought of to say to a student.</t>
-  </si>
-  <si>
-    <t>Status post re amusing due date mix up</t>
-  </si>
-  <si>
-    <t>I wasn't near a computer (and it seemed too long to text) and lord knows I don't quite need more people thinking I'm an idiot :)</t>
-  </si>
-  <si>
-    <t>Probably my parents. I was working like a dog during Thanksgiving break and if they found out this thing was due later than I thought they might be a bit annoyed.</t>
-  </si>
-  <si>
-    <t>Behavioral Economics class</t>
-  </si>
-  <si>
-    <t>Taking notes :)</t>
-  </si>
-  <si>
-    <t>I've been working every spare moment on a class project/paper I thought was due on Wednesday, the 30th, including forgoing sleep the night before. I finished it about an hour before the class, and then discovered (10 minutes before the class) that it's actually due next week, and my copy of the syllabus was dated. This actually struck me as hilarious at the time, so I considered posting it on FB.</t>
-  </si>
-  <si>
-    <t>Status post re exhaustion and like of desire to work</t>
-  </si>
-  <si>
-    <t>Don't really care for whiny posts. Empathy is nice i guess but I don't want to get it from FB.</t>
-  </si>
-  <si>
-    <t>Peers who'd think I'm being whiny?</t>
-  </si>
-  <si>
-    <t>Rehearsal (Heinz Hall, downtown)</t>
-  </si>
-  <si>
-    <t>Waiting to receive notes from the director on the night's run</t>
-  </si>
-  <si>
-    <t>This should've been 'lack of desire'. At this point had been awake for about 40 hours straight and busy the entire time - working, meetings, or rehearsing. Was totally burnt out and thought about whining about it on the book.</t>
-  </si>
-  <si>
-    <t>Status update "need to ptfo already. This week neeeeeeeeds to end! "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People dont need to know every aspect about my life. Even though people would probably "like" my status, I felt it was just unnecessary to post. </t>
-  </si>
-  <si>
-    <t>In my room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I went to sleep right after </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am running on 2 hours of sleep, and felt really stressed with all the other things that I needed to still do. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rip Charlie :( you were a good car. Looks like its the bus for now. (status update) </t>
-  </si>
-  <si>
-    <t>Don't like to complain on facebook</t>
-  </si>
-  <si>
-    <t>Old friends who might be happy</t>
-  </si>
-  <si>
-    <t>My friends now who might help</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>sitting online</t>
-  </si>
-  <si>
-    <t>My car broke and isn't worth fixing</t>
-  </si>
-  <si>
-    <t>Comment on friends wall "we are meant to be roommates. I come home to ptfo and there you are already ptfoed lols. Love you!"</t>
-  </si>
-  <si>
-    <t>too tired</t>
-  </si>
-  <si>
-    <t>my roommate</t>
-  </si>
-  <si>
-    <t>in my bed</t>
-  </si>
-  <si>
-    <t>sleeping</t>
-  </si>
-  <si>
-    <t>Wanted to pos on my roommates wall that we are so similar and meant to be!</t>
-  </si>
-  <si>
-    <t>Status Update:  Can't believe dubstep is even being recognized at the Grammy's.  What happened to music?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I did not want to offend fans of that genre of music.  I thought it may have been too insensitive.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, as described before, fans of "dubstep" music.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, fans of rock music.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was in my bedroom.  </t>
-  </si>
-  <si>
-    <t>I was surfing the internet recapping last night's Grammy Nominations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was disappointed by last night's Grammy Nomination show.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">So annoyed and unhappy </t>
-  </si>
-  <si>
-    <t>Don't like to seem moody</t>
-  </si>
-  <si>
-    <t>Ex-friends</t>
-  </si>
-  <si>
-    <t>Current friends</t>
-  </si>
-  <si>
-    <t>Upset that I wasted my time not doing homework and that I don't have a car</t>
-  </si>
-  <si>
-    <t>Fainted today in chem class. No big deal</t>
-  </si>
-  <si>
-    <t>I didn't think it was appropriate to post it on my facebook for everyone to see, and I didn't want people asking questions or overreacting.</t>
-  </si>
-  <si>
-    <t>My parents, family members.</t>
-  </si>
-  <si>
-    <t>Friends</t>
-  </si>
-  <si>
-    <t>My room</t>
-  </si>
-  <si>
-    <t>Homework</t>
-  </si>
-  <si>
-    <t>I fainted in my chemistry class today after attempting to clean a cut obtained by handling broken glass. I saw the blood and felt queasy and fainted.</t>
-  </si>
-  <si>
-    <t>"Pahahahaha Mel Gibson" to my friend emily's wall</t>
-  </si>
-  <si>
-    <t>Unnecessary</t>
-  </si>
-  <si>
-    <t>My friend Emily and 2 other friends that would also understand the context.</t>
-  </si>
-  <si>
-    <t>didnt feel like it</t>
-  </si>
-  <si>
-    <t>Studying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was an inside joke between my friend Emily and I. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetris is ruining my life - status post </t>
-  </si>
-  <si>
-    <t>it defeats the point of saying it on facebook because it still means that i'm distracted</t>
-  </si>
-  <si>
-    <t>my friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in my room </t>
-  </si>
-  <si>
-    <t>playing tetris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was playing a lot of tetris instead of studying </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A victim treats his mugger right- link via npr news </t>
-  </si>
-  <si>
-    <t>because so many people shared it already</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>on facebook</t>
-  </si>
-  <si>
-    <t>it was a newspaper article</t>
-  </si>
-  <si>
-    <t>Status: wasnt interesting enough</t>
-  </si>
-  <si>
-    <t>I didn't think it was interesting enough. Didnt really add any value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No one in particular, but didnt post becuase didn;t think others would care. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In my room. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking my email. </t>
-  </si>
-  <si>
-    <t>I thought about updating my status about how I was glad my week was finally over.  TGIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment on a friends profile picture im in: will write cute comment later when not so busy With school </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wanted to write some thing sweet and meaningful  on the picture. </t>
-  </si>
-  <si>
-    <t>N/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The four friends that were tagged in the picture. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getting ready to  go to class, was running late, so didnt post the message. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A friend updated her profile picture to a  picture of my three friends and I. My four best friends. </t>
-  </si>
-  <si>
-    <t>I am stuck looking like a retard trying to unzip my stuck jacket. Status update</t>
-  </si>
-  <si>
-    <t>it was unneccesary</t>
-  </si>
-  <si>
-    <t>nope</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>at the library</t>
-  </si>
-  <si>
-    <t>just doing work</t>
-  </si>
-  <si>
-    <t>My jacket zipper got stuck and i tried so hard to unzip it</t>
-  </si>
-  <si>
-    <t>This is hilarious! - an old picture of my friend at her brother's graduation where the family looks goofy</t>
-  </si>
-  <si>
-    <t>I don't know some of the people who commented on the picture</t>
-  </si>
-  <si>
-    <t>The people I didn't know</t>
-  </si>
-  <si>
-    <t>my friend</t>
-  </si>
-  <si>
-    <t>On my phone</t>
-  </si>
-  <si>
-    <t>Eating breakfast</t>
-  </si>
-  <si>
-    <t>my friend's brother has a funny hairdo in the picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sometimes people suck </t>
-  </si>
-  <si>
-    <t>Didn't want people to think it was about them</t>
-  </si>
-  <si>
-    <t>My boss</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Sitting online</t>
-  </si>
-  <si>
-    <t>My boss was annoying me</t>
-  </si>
-  <si>
-    <t>Status Update: "i swear i just heard Link yell 'bitch' as he stabbed a giant spider"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It seemed less interesting after the thought passed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">My gamer friends and boyfriend. </t>
-  </si>
-  <si>
-    <t>Drinking coffee watching colbert report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was watching an add for a video game and thought i heard the main character swear so i was going to comment. </t>
-  </si>
-  <si>
-    <t>Video clip of Colbert Report-anti piracy laws debate</t>
-  </si>
-  <si>
-    <t>Not enough time to search for a share-able clip</t>
-  </si>
-  <si>
-    <t>Cmu students</t>
-  </si>
-  <si>
-    <t>Drinking coffee</t>
-  </si>
-  <si>
-    <t>I was watching an episode of colbert report and a clip came up that reminded me about a controversial convo</t>
-  </si>
-  <si>
-    <t>Why do i even study? - status update decided not to post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">because I didn't want pity from my friends.  </t>
-  </si>
-  <si>
-    <t>walking from class</t>
-  </si>
-  <si>
-    <t>wondering why i failed it even if i studied a lot</t>
-  </si>
-  <si>
-    <t>I failed my test</t>
-  </si>
-  <si>
-    <t>My lab ta told me she thinks of me as her little sister. I feel happy</t>
-  </si>
-  <si>
-    <t>status update</t>
-  </si>
-  <si>
-    <t>all my FB friends</t>
-  </si>
-  <si>
-    <t>In case people were interested in watching the live stream of the event</t>
-  </si>
-  <si>
-    <t>post about speaking at a conference today</t>
-  </si>
-  <si>
-    <t>Posting some pictures, not appropriate for facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I didn't upload the ones with alcohol or the ones we looked really bad. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didn't want people that weren't in those pictures seeing them. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The friends that the pictures were of. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">My room. </t>
-  </si>
-  <si>
-    <t>Watching TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was uploading pictures from the last two months. </t>
-  </si>
-  <si>
-    <t>Forgot my wallet again- status update</t>
-  </si>
-  <si>
-    <t>I thought it will make me look stupid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">people that already knows that I make mistakes like that often </t>
-  </si>
-  <si>
-    <t>I just wanted to vent</t>
-  </si>
-  <si>
-    <t>walking in the street</t>
-  </si>
-  <si>
-    <t>waiting for the coffee the other person paid instead</t>
-  </si>
-  <si>
-    <t>Forgot my wallet when I promised someone that I will pay for that coffee</t>
-  </si>
-  <si>
-    <t>Video clip of my friend's AKA probate</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>My last response was for this survey (see response about AKA video)</t>
-  </si>
-  <si>
-    <t>It's too long</t>
-  </si>
-  <si>
-    <t>Anyome who might make inappropriate comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The group of friends who attended with me and the girl in it. I wanted to support her in her new sorority. </t>
-  </si>
-  <si>
-    <t>Carnegie mellon university's campus</t>
-  </si>
-  <si>
-    <t>Hanging out with friends</t>
-  </si>
-  <si>
-    <t>I attended my friends AKA probate tonight and was going to submit a video of her performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnecessary </t>
-  </si>
-  <si>
-    <t>My friends</t>
-  </si>
-  <si>
-    <t>at the restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eating </t>
-  </si>
-  <si>
-    <t>"Going to eat my #25 worth." There was a banquet tonight for all you can eat bbq for 25 dollars</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To show everyone a picture of me and my mentee at banquet </t>
-  </si>
-  <si>
-    <t>Mentee!</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>my high school friends</t>
-  </si>
-  <si>
-    <t>to cheer them up with a funny story</t>
-  </si>
-  <si>
-    <t>I sent an inbox to my high school friends describing my life</t>
-  </si>
-  <si>
-    <t>Just thought some of my friends would be interested</t>
-  </si>
-  <si>
-    <t>Posted about going to the airport in Denver with FTC commissioner</t>
-  </si>
-  <si>
-    <t>Was very busy; working in the morning, lunch meeting, folks visiting, then a performance downtown.</t>
-  </si>
-  <si>
-    <t>Life's too short to be spent thinking about sharing it all the time :)</t>
-  </si>
-  <si>
-    <t>Programming can smd. Status update</t>
-  </si>
-  <si>
-    <t>Did not feel like it was necessary.</t>
-  </si>
-  <si>
-    <t>My parents</t>
-  </si>
-  <si>
-    <t>Other people in programming that would understand what I was talking about/are suffering the same thing</t>
-  </si>
-  <si>
-    <t>Working on programming in the library</t>
-  </si>
-  <si>
-    <t>programming homework</t>
-  </si>
-  <si>
-    <t>Working on programming homework, and it was super frustrating. I could not solve my problem</t>
-  </si>
-  <si>
-    <t>Status Update:  The Steelers are the only team that matters in the NFL.</t>
-  </si>
-  <si>
-    <t>I decided not to post this because it would offend my friends from Cincinnati.</t>
-  </si>
-  <si>
-    <t>Yes, my Cincinnati friends.</t>
-  </si>
-  <si>
-    <t>Yes, my friends from Pittsburgh.</t>
-  </si>
-  <si>
-    <t>I was at my house.</t>
-  </si>
-  <si>
-    <t>I was watching the football game on television.</t>
-  </si>
-  <si>
-    <t>I was watching the Steelers-Bengals game on TV and this status came to mind.  When the Steelers were winning 35-7, I thought this would be an appropriate status.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Because I didn't want my family to see it and know I was slacking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">My family </t>
-  </si>
-  <si>
-    <t xml:space="preserve">My law school friends who are crazy about studying </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At my apartment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watching football </t>
-  </si>
-  <si>
-    <t>I tried to text in "havent started studying yet"</t>
-  </si>
-  <si>
-    <t>Wallpost of Web page for iRobot Scooba</t>
-  </si>
-  <si>
-    <t>I couldn't easily find a link specifically for this product. Home.woot.com changes its product daily so if someone clicked tomorrow it wouldnt be the same</t>
-  </si>
-  <si>
-    <t>My roommates and boyfriend</t>
-  </si>
-  <si>
-    <t>At home in bed</t>
-  </si>
-  <si>
-    <t>Trying to study for an exam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wanted to post information/video ad of the iRobot Scooba (a floor washing robot) that i found on woot.com. </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anyone on myu friends list. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was a the lyrics (chorus) of a song that came on while I was at the bar. I like to post lyrics of songs that are playing when I am out. </t>
-  </si>
-  <si>
-    <t>"Living in the fast lane I'm for real"</t>
-  </si>
-  <si>
-    <t>I didn't have enough time</t>
-  </si>
-  <si>
-    <t>yes, the people in the pictures</t>
-  </si>
-  <si>
-    <t>my room</t>
-  </si>
-  <si>
-    <t>homework</t>
-  </si>
-  <si>
-    <t>I did not post pictures from this weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was going to write something on someones wall but didn't because it wasn't really amusing, and was embarrassed of other people seeing it. It was a personal thing and didn't need to be shared. </t>
-  </si>
-  <si>
-    <t>Her ex boyfriend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just her. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the library </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was going to write on the wall of a friend who just broke up withe her boyfriend. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">God thank u for using even my studies as a means to bring me a little closer to u- status update </t>
-  </si>
-  <si>
-    <t xml:space="preserve">not too long ago maybe couple minutes ago.  </t>
-  </si>
-  <si>
-    <t>people who may not be so religious that might be offended by my post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">everyone </t>
-  </si>
-  <si>
-    <t>in front of my friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talking to my friends </t>
-  </si>
-  <si>
-    <t>I was having a really hard time with having to study for finals and prayed and wanted to post it on facebook to share</t>
-  </si>
-  <si>
-    <t>I wanted to go see tba today but would rather not be judged for going</t>
-  </si>
-  <si>
-    <t>"sometimes I wake up a little early because I am curious as to whether or not people have liked my statuses #loser" fb status</t>
-  </si>
-  <si>
-    <t>It made me look like a loser.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People that may have made fun of me. </t>
-  </si>
-  <si>
-    <t>People that might empathize.</t>
-  </si>
-  <si>
-    <t>In front of my computer.</t>
-  </si>
-  <si>
-    <t>Looking at computer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I had posted a status overnight and noticed that I had woken up early just to see if anyone had liked it. </t>
-  </si>
-  <si>
-    <t>Status Update:  I can't believe Gellar doesn't actually exist in Dexter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a very crucial piece of information in the season and I didn't want to ruin it for people who haven't watched the episode yet.  </t>
-  </si>
-  <si>
-    <t>Yes, people who have not yet watched this episode.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, people who have already seen this episode.  </t>
-  </si>
-  <si>
-    <t>I was in my house.</t>
-  </si>
-  <si>
-    <t>I was watching the TV show on my computer in my bedroom.</t>
-  </si>
-  <si>
-    <t>I was watching Dexter Season 8 Episode 9 on my computer and was stunned reflecting on this.</t>
-  </si>
-  <si>
-    <t>Status update: 'double fisting in the morning!'</t>
-  </si>
-  <si>
-    <t>On second thought, no one would really get it if they weren't there.</t>
-  </si>
-  <si>
-    <t>Forbes Ave.</t>
-  </si>
-  <si>
-    <t>Walking to class/drinking water and a latte</t>
-  </si>
-  <si>
-    <t>I was walking down Forbes Ave. this morning with a latte in one hand and a cup of water in the other. I felt a bit silly and giggled to myself at the thought of "double-fisting".</t>
-  </si>
-  <si>
-    <t>Grrrrrrr</t>
-  </si>
-  <si>
-    <t>Didn't want him to feel bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My boyfriend </t>
-  </si>
-  <si>
-    <t>At school</t>
-  </si>
-  <si>
-    <t>reading</t>
-  </si>
-  <si>
-    <t>My boyfriend me his competition date had switched and he was going to miss our formal in the spring</t>
-  </si>
-  <si>
-    <t>Somebody come visit me at work! Boreddddd. Status update</t>
-  </si>
-  <si>
-    <t>Didn't want certain people to see it since im not allowed to have people over when Im working</t>
-  </si>
-  <si>
-    <t>Yes... my boss</t>
-  </si>
-  <si>
-    <t>friends!</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>I was working and I wanted someone to come keep me company due to the fact that I was really bored.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So sleep and stressed.  why do all the professors try to cram in everything before finals week? </t>
-  </si>
-  <si>
-    <t>Afraid that my professors might have facebook and see my post</t>
-  </si>
-  <si>
-    <t>my professors</t>
-  </si>
-  <si>
-    <t>no one in particular</t>
-  </si>
-  <si>
-    <t>in the lab</t>
-  </si>
-  <si>
-    <t>studying</t>
-  </si>
-  <si>
-    <t>Very stressed out because all the professors have tried to cram in their tests before finals week.  one of them actually got moved form finals week to the same day as my other final this week.</t>
-  </si>
-  <si>
-    <t>Wall post: a cow based economics lesson</t>
-  </si>
-  <si>
-    <t>It was really long and I already shared a lot of content today so I thought I'd be annoying people.</t>
-  </si>
-  <si>
-    <t>My boyfriend and roommate</t>
-  </si>
-  <si>
-    <t>browsing the web</t>
-  </si>
-  <si>
-    <t>There's a funny post I found on Google+ describing different economies using the example of "You have two cows...". I thought it would be cute to share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It might have embarrassed a friend. He had given me $500 for no reason. Absolutely no reason. He is a weird guy that does random stuff like that. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeah my friend, Zack. </t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Out eating at Moe's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eating at Moe's, had just got off of the phone with Zack. </t>
-  </si>
-  <si>
-    <t>Facebook Status: "Just received $500. It's a good day."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some people would've asked me about it who I'd rather not explain it to </t>
-  </si>
-  <si>
-    <t>One or two other people I had previously dated (+4 months ago) that (and I'm assuming) might be a bit upset to see me dating someone else (and enjoying it)</t>
-  </si>
-  <si>
-    <t>Maybe the girl herself?</t>
-  </si>
-  <si>
-    <t>My room, at home</t>
-  </si>
-  <si>
-    <t>Working and chatting online</t>
-  </si>
-  <si>
-    <t>Early this 'morning' (1:00 AM) had been talking online with a a girl I've gone on a few dates with online. The conversation left me in a good mood, and I thought about posting something about it as my status - some sort of status update.</t>
-  </si>
-  <si>
-    <t>Status update: i'd be just fine if my professors decided to just grade me on my progress so far and forget about all this 'finals' nonsense. Ive proven m</t>
-  </si>
-  <si>
-    <t>Posted too much to facebook in the past few hours.</t>
-  </si>
-  <si>
-    <t>anyone not wanting to study</t>
-  </si>
-  <si>
-    <t>browsing the internet/procrastinating</t>
-  </si>
-  <si>
-    <t>I was getting exhausted thinking of work and figured everyone else could relate at this time of year.</t>
-  </si>
-  <si>
-    <t>yself to this point!!</t>
-  </si>
-  <si>
-    <t>this is part of my previous message...</t>
-  </si>
-  <si>
-    <t>Status: I hate it when I have a song in my head but only know the tune and not the lyrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eh, I go back and forth between posting the minutiae of my life and not posting the minutiae of my life. This time the not posting won out. </t>
-  </si>
-  <si>
-    <t>Nope.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The people who related to it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At work. </t>
-  </si>
-  <si>
-    <t>Surfing the internet.</t>
-  </si>
-  <si>
-    <t>There was a song that was playing when I was at this website and now not only can I not find the song, but the tune is still in my head!</t>
-  </si>
-  <si>
-    <t>1) My response would've been 3 minutes after she posted, so I decided to wait.
-2)I was going to write something else on her wall for her birthday, so decided to wait till then. Instead of two posts, it would have been synthesized to 1.</t>
-  </si>
-  <si>
-    <t>1) The person who posted on my wall
-2) N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) N/A
-3)The person whose wall I posted on </t>
-  </si>
-  <si>
-    <t>1) Library
-2) Classroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Study break
-2) In class
-</t>
-  </si>
-  <si>
-    <t>1) I was going to comment on a post someone wrote on my wall.
-2) I was going to write on a friends walls, but stopped.</t>
-  </si>
-  <si>
-    <t>Didn't post a status about my huge project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cant believe my TA.  now im not gonna get an A in that course </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have recently saw a documentary on Facebook where a highschool teacher lost a job because she posted something about her students and thought the privacy setting was on but Facebook switched it to "public".  My TA has facebook.  It would be really bad if this got out. </t>
-  </si>
-  <si>
-    <t>my TA</t>
-  </si>
-  <si>
-    <t>Talking to to my TA</t>
-  </si>
-  <si>
-    <t>The TA graded one of the reports very harshly.  A lot of students were complaining about the reports.</t>
-  </si>
-  <si>
-    <t>This week is going by too fast!!! :(</t>
-  </si>
-  <si>
-    <t>clogging up fb newsfeed</t>
-  </si>
-  <si>
-    <t>people who also feel the same way</t>
-  </si>
-  <si>
-    <t>in the lounge</t>
-  </si>
-  <si>
-    <t>"studying"</t>
-  </si>
-  <si>
-    <t>I have so many tests and quizzes and presentations this week. I feel like im not prepared for them.</t>
-  </si>
-  <si>
-    <t>Studying= me jamming by myself in the mw lounge :)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">embarrassing. </t>
-  </si>
-  <si>
-    <t>friends in my class who would come join me</t>
-  </si>
-  <si>
-    <t>I was studying for a math test in the lounge and I was the only one in there. I was also listening to music and a song that I really liked was playing, so I was rocking out to it.</t>
-  </si>
-  <si>
-    <t>comment on a status</t>
-  </si>
-  <si>
-    <t>My friends in Chicago</t>
-  </si>
-  <si>
-    <t>To let me them know I am thinking about them</t>
-  </si>
-  <si>
-    <t>I posted "Wish I could be there with you guys!" and "If I could swing it I totally would! Being a full-time student SUCKS!"</t>
-  </si>
-  <si>
-    <t>Reply to wall post: you don't have to get me anything! I can't wait to see you :)</t>
-  </si>
-  <si>
-    <t>I was too tired to figure out wording.</t>
-  </si>
-  <si>
-    <t>my aunt (the person i was replying to)</t>
-  </si>
-  <si>
-    <t>Getting ready for bed</t>
-  </si>
-  <si>
-    <t>My aunt posted on my wall "What do you want for Christmas?" I was going to reply to tell her I don't need her to get me anything.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
-    <t>sms_date</t>
-  </si>
-  <si>
-    <t>sms_body</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>np1</t>
-  </si>
-  <si>
-    <t>np2</t>
-  </si>
-  <si>
-    <t>np3</t>
-  </si>
-  <si>
-    <t>nn1</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>long_description</t>
-  </si>
-  <si>
-    <t>post_date</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>doneparticipating</t>
-  </si>
-  <si>
-    <t>1157fb24921249c141ed1e9279858dd7</t>
-  </si>
-  <si>
-    <t>sauvik@cmu.edu</t>
-  </si>
-  <si>
-    <t>68cf9e4c963b5adae77cd6851442a4d2</t>
-  </si>
-  <si>
-    <t>Me@rebeccahunt.com</t>
-  </si>
-  <si>
-    <t>5b0a362a998f6a4cc27a368cbc7618c9</t>
-  </si>
-  <si>
-    <t>wiese@cmu.edu</t>
-  </si>
-  <si>
-    <t>4854ece7349662017374286da5b58432</t>
-  </si>
-  <si>
-    <t>Lorrie@cmu.edu</t>
-  </si>
-  <si>
-    <t>9e6d88f850a38af7473dc164a80a125d</t>
-  </si>
-  <si>
-    <t>dggordon@cmu.edu</t>
-  </si>
-  <si>
-    <t>d003b6b57c70cbb8cbe295bd74018852</t>
-  </si>
-  <si>
-    <t>Lem81@pitt.edu</t>
-  </si>
-  <si>
-    <t>1f033555c763582a8b39f7d313079671</t>
-  </si>
-  <si>
-    <t>Apriljianto@gmail.com</t>
-  </si>
-  <si>
-    <t>25d1828d65587451f33c4a32fdf4141c</t>
-  </si>
-  <si>
-    <t>Jdotpitts@gmail.com</t>
-  </si>
-  <si>
-    <t>3e5b799cd83dca724747e96ffeadaaf8</t>
-  </si>
-  <si>
-    <t>Rissa543@gmail.com</t>
-  </si>
-  <si>
-    <t>04b8bd7493f26b8d86c9f3ba101a20ce</t>
-  </si>
-  <si>
-    <t>Ams224@gmail.com</t>
-  </si>
-  <si>
-    <t>398a58bba9323cd8a2879a1608655049</t>
-  </si>
-  <si>
-    <t>agoginen@andrew.cmu.edu</t>
-  </si>
-  <si>
-    <t>a4e391df6b62854089b58df2e4448e26</t>
-  </si>
-  <si>
-    <t>Danielcsmyers@gmail.com</t>
-  </si>
-  <si>
-    <t>cd21bb32a6b72ff9ece403d1b812cc96</t>
-  </si>
-  <si>
-    <t>Yookyung@andrew.cmu.edu</t>
-  </si>
-  <si>
-    <t>90d076c46f032821de7e04b932912239</t>
-  </si>
-  <si>
-    <t>Afinger@andrew.cmu.edu</t>
   </si>
 </sst>
 </file>
@@ -1511,8 +1643,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1525,11 +1661,15 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1872,64 +2012,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" t="s">
         <v>427</v>
       </c>
-      <c r="B1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>428</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>429</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>430</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>431</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
         <v>432</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>433</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>434</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>435</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>437</v>
-      </c>
-      <c r="M1" t="s">
-        <v>438</v>
-      </c>
-      <c r="N1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>441</v>
-      </c>
-      <c r="R1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S1" t="s">
-        <v>443</v>
-      </c>
-      <c r="T1" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -1945,22 +2085,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="122.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="133" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.83203125" bestFit="1" customWidth="1"/>
@@ -1976,64 +2113,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" t="s">
         <v>427</v>
       </c>
-      <c r="B1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>428</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>429</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>430</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>431</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
         <v>432</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>433</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>434</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>435</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>437</v>
-      </c>
-      <c r="M1" t="s">
-        <v>438</v>
-      </c>
-      <c r="N1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>441</v>
-      </c>
-      <c r="R1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S1" t="s">
-        <v>443</v>
-      </c>
-      <c r="T1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2860,7 +2997,7 @@
         <v>39413.617465277777</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="105">
+    <row r="21" spans="1:20" ht="60">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2874,10 +3011,10 @@
         <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F21" t="s">
         <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
       </c>
       <c r="G21" t="s">
         <v>81</v>
@@ -2886,7 +3023,7 @@
         <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O21" s="1">
         <v>39413.895624999997</v>
@@ -2901,7 +3038,7 @@
         <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T21" s="1">
         <v>39413.687291666669</v>
@@ -2921,19 +3058,19 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
       </c>
       <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
         <v>98</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>99</v>
-      </c>
-      <c r="I22" t="s">
-        <v>100</v>
       </c>
       <c r="O22" s="1">
         <v>39414.045451388891</v>
@@ -2948,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="S22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T22" s="1">
         <v>39413</v>
@@ -3081,22 +3218,22 @@
         <v>39414.654942129629</v>
       </c>
       <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
         <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
       </c>
       <c r="F27" t="s">
         <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" t="s">
         <v>104</v>
-      </c>
-      <c r="I27" t="s">
-        <v>105</v>
       </c>
       <c r="O27" s="1">
         <v>39414.654953703706</v>
@@ -3111,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="S27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T27" s="1">
         <v>39414.446608796294</v>
@@ -3160,19 +3297,19 @@
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
         <v>54</v>
       </c>
       <c r="G29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" t="s">
         <v>108</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>109</v>
-      </c>
-      <c r="I29" t="s">
-        <v>110</v>
       </c>
       <c r="O29" s="1">
         <v>39415.124942129631</v>
@@ -3187,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="S29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T29" s="1">
         <v>39414.208333333336</v>
@@ -3303,7 +3440,7 @@
         <v>42</v>
       </c>
       <c r="R33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T33" s="1">
         <v>39414.208333333336</v>
@@ -3407,22 +3544,22 @@
         <v>39415.857476851852</v>
       </c>
       <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
         <v>113</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>114</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>115</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>116</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>117</v>
-      </c>
-      <c r="I37" t="s">
-        <v>118</v>
       </c>
       <c r="O37" s="1">
         <v>39415.857488425929</v>
@@ -3437,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="S37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T37" s="1">
         <v>39415.649143518516</v>
@@ -3454,22 +3591,22 @@
         <v>39415.858124999999</v>
       </c>
       <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
         <v>120</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>121</v>
-      </c>
-      <c r="F38" t="s">
-        <v>122</v>
       </c>
       <c r="G38" t="s">
         <v>81</v>
       </c>
       <c r="H38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" t="s">
         <v>123</v>
-      </c>
-      <c r="I38" t="s">
-        <v>124</v>
       </c>
       <c r="O38" s="1">
         <v>39415.858124999999</v>
@@ -3484,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="S38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T38" s="1">
         <v>39415.649791666663</v>
@@ -3501,22 +3638,22 @@
         <v>39416.149421296293</v>
       </c>
       <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
         <v>126</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>127</v>
-      </c>
-      <c r="F39" t="s">
-        <v>128</v>
       </c>
       <c r="G39" t="s">
         <v>81</v>
       </c>
       <c r="H39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" t="s">
         <v>129</v>
-      </c>
-      <c r="I39" t="s">
-        <v>130</v>
       </c>
       <c r="O39" s="1">
         <v>39416.14943287037</v>
@@ -3531,7 +3668,7 @@
         <v>4</v>
       </c>
       <c r="S39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T39" s="1">
         <v>39415.941087962965</v>
@@ -3548,10 +3685,10 @@
         <v>39416.921550925923</v>
       </c>
       <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
         <v>132</v>
-      </c>
-      <c r="E40" t="s">
-        <v>133</v>
       </c>
       <c r="F40" t="s">
         <v>81</v>
@@ -3560,10 +3697,10 @@
         <v>81</v>
       </c>
       <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" t="s">
         <v>134</v>
-      </c>
-      <c r="I40" t="s">
-        <v>135</v>
       </c>
       <c r="O40" s="1">
         <v>39416.921550925923</v>
@@ -3578,7 +3715,7 @@
         <v>4</v>
       </c>
       <c r="S40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T40" s="1">
         <v>39416.713217592594</v>
@@ -3595,22 +3732,22 @@
         <v>39416.927523148152</v>
       </c>
       <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
         <v>137</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>138</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>139</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>140</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>141</v>
-      </c>
-      <c r="I41" t="s">
-        <v>142</v>
       </c>
       <c r="O41" s="1">
         <v>39416.927523148152</v>
@@ -3625,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="S41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T41" s="1">
         <v>39416.719189814816</v>
@@ -3642,22 +3779,22 @@
         <v>39416.942754629628</v>
       </c>
       <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
         <v>144</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
       <c r="G42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" t="s">
         <v>146</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>147</v>
-      </c>
-      <c r="I42" t="s">
-        <v>148</v>
       </c>
       <c r="O42" s="1">
         <v>39416.942766203705</v>
@@ -3672,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="S42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T42" s="1">
         <v>39416.7344212963</v>
@@ -3689,22 +3826,22 @@
         <v>39416.981724537036</v>
       </c>
       <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" t="s">
         <v>150</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>151</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>152</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>153</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>154</v>
-      </c>
-      <c r="I43" t="s">
-        <v>155</v>
       </c>
       <c r="O43" s="1">
         <v>39416.981724537036</v>
@@ -3719,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="S43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T43" s="1">
         <v>39416.7733912037</v>
@@ -3736,22 +3873,22 @@
         <v>39416.982719907406</v>
       </c>
       <c r="D44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" t="s">
         <v>157</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>158</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>159</v>
       </c>
-      <c r="G44" t="s">
-        <v>160</v>
-      </c>
       <c r="H44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" t="s">
         <v>141</v>
-      </c>
-      <c r="I44" t="s">
-        <v>142</v>
       </c>
       <c r="O44" s="1">
         <v>39416.982719907406</v>
@@ -3766,7 +3903,7 @@
         <v>4</v>
       </c>
       <c r="S44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T44" s="1">
         <v>39416.774386574078</v>
@@ -3783,22 +3920,22 @@
         <v>39417.03261574074</v>
       </c>
       <c r="D45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" t="s">
         <v>162</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>163</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>164</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>165</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>166</v>
-      </c>
-      <c r="I45" t="s">
-        <v>167</v>
       </c>
       <c r="O45" s="1">
         <v>39417.032627314817</v>
@@ -3813,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="S45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T45" s="1">
         <v>39416.824282407404</v>
@@ -3859,22 +3996,22 @@
         <v>39417.115046296298</v>
       </c>
       <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" t="s">
         <v>169</v>
-      </c>
-      <c r="E47" t="s">
-        <v>170</v>
       </c>
       <c r="F47" t="s">
         <v>54</v>
       </c>
       <c r="G47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" t="s">
         <v>171</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>172</v>
-      </c>
-      <c r="I47" t="s">
-        <v>173</v>
       </c>
       <c r="O47" s="1">
         <v>39417.115046296298</v>
@@ -3889,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="S47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T47" s="1">
         <v>39416.906712962962</v>
@@ -3906,22 +4043,22 @@
         <v>39417.123055555552</v>
       </c>
       <c r="D48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" t="s">
         <v>175</v>
-      </c>
-      <c r="E48" t="s">
-        <v>176</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
       <c r="G48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" t="s">
         <v>177</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>178</v>
-      </c>
-      <c r="I48" t="s">
-        <v>179</v>
       </c>
       <c r="O48" s="1">
         <v>39417.123055555552</v>
@@ -3936,7 +4073,7 @@
         <v>4</v>
       </c>
       <c r="S48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T48" s="1">
         <v>39416.914722222224</v>
@@ -3953,22 +4090,22 @@
         <v>39417.123333333337</v>
       </c>
       <c r="D49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" t="s">
         <v>181</v>
-      </c>
-      <c r="E49" t="s">
-        <v>182</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" t="s">
         <v>183</v>
-      </c>
-      <c r="H49" t="s">
-        <v>178</v>
-      </c>
-      <c r="I49" t="s">
-        <v>184</v>
       </c>
       <c r="O49" s="1">
         <v>39417.123333333337</v>
@@ -3983,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="S49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T49" s="1">
         <v>39416.915000000001</v>
@@ -4058,22 +4195,22 @@
         <v>39417.517060185186</v>
       </c>
       <c r="D52" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" t="s">
         <v>186</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>187</v>
-      </c>
-      <c r="F52" t="s">
-        <v>188</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
       </c>
       <c r="H52" t="s">
+        <v>188</v>
+      </c>
+      <c r="I52" t="s">
         <v>189</v>
-      </c>
-      <c r="I52" t="s">
-        <v>190</v>
       </c>
       <c r="O52" s="1">
         <v>39417.517060185186</v>
@@ -4088,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="S52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T52" s="1">
         <v>39417.30872685185</v>
@@ -4105,22 +4242,22 @@
         <v>39417.51771990741</v>
       </c>
       <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
         <v>192</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>193</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>194</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" t="s">
         <v>195</v>
-      </c>
-      <c r="H53" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" t="s">
-        <v>196</v>
       </c>
       <c r="O53" s="1">
         <v>39417.51771990741</v>
@@ -4135,7 +4272,7 @@
         <v>4</v>
       </c>
       <c r="S53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T53" s="1">
         <v>39417.309386574074</v>
@@ -4152,22 +4289,22 @@
         <v>39417.643912037034</v>
       </c>
       <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" t="s">
         <v>198</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>199</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>200</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>201</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>202</v>
-      </c>
-      <c r="I54" t="s">
-        <v>203</v>
       </c>
       <c r="O54" s="1">
         <v>39417.643912037034</v>
@@ -4182,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="S54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T54" s="1">
         <v>39417.435578703706</v>
@@ -4199,22 +4336,22 @@
         <v>39417.645671296297</v>
       </c>
       <c r="D55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" t="s">
         <v>205</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>206</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>207</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>208</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>209</v>
-      </c>
-      <c r="I55" t="s">
-        <v>210</v>
       </c>
       <c r="O55" s="1">
         <v>39417.645671296297</v>
@@ -4229,7 +4366,7 @@
         <v>4</v>
       </c>
       <c r="S55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T55" s="1">
         <v>39417.437337962961</v>
@@ -4246,22 +4383,22 @@
         <v>39417.679699074077</v>
       </c>
       <c r="D56" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" t="s">
         <v>212</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>213</v>
-      </c>
-      <c r="F56" t="s">
-        <v>214</v>
       </c>
       <c r="G56" t="s">
         <v>54</v>
       </c>
       <c r="H56" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" t="s">
         <v>215</v>
-      </c>
-      <c r="I56" t="s">
-        <v>216</v>
       </c>
       <c r="O56" s="1">
         <v>39417.679710648146</v>
@@ -4276,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="S56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T56" s="1">
         <v>39417.471365740741</v>
@@ -4293,22 +4430,22 @@
         <v>39417.680625000001</v>
       </c>
       <c r="D57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" t="s">
         <v>218</v>
-      </c>
-      <c r="E57" t="s">
-        <v>219</v>
       </c>
       <c r="F57" t="s">
         <v>54</v>
       </c>
       <c r="G57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H57" t="s">
         <v>49</v>
       </c>
       <c r="I57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O57" s="1">
         <v>39417.680625000001</v>
@@ -4323,7 +4460,7 @@
         <v>4</v>
       </c>
       <c r="S57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T57" s="1">
         <v>39417.472291666665</v>
@@ -4340,22 +4477,22 @@
         <v>39417.681250000001</v>
       </c>
       <c r="D58" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" t="s">
         <v>223</v>
-      </c>
-      <c r="E58" t="s">
-        <v>224</v>
       </c>
       <c r="F58" t="s">
         <v>54</v>
       </c>
       <c r="G58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H58" t="s">
         <v>49</v>
       </c>
       <c r="I58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O58" s="1">
         <v>39417.681250000001</v>
@@ -4370,7 +4507,7 @@
         <v>4</v>
       </c>
       <c r="S58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T58" s="1">
         <v>39417.472916666666</v>
@@ -4387,22 +4524,22 @@
         <v>39417.694687499999</v>
       </c>
       <c r="D59" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" t="s">
         <v>228</v>
-      </c>
-      <c r="E59" t="s">
-        <v>229</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59" t="s">
         <v>230</v>
-      </c>
-      <c r="I59" t="s">
-        <v>231</v>
       </c>
       <c r="O59" s="1">
         <v>39417.694687499999</v>
@@ -4417,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="S59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T59" s="1">
         <v>39417.486354166664</v>
@@ -4434,19 +4571,37 @@
         <v>39417.835300925923</v>
       </c>
       <c r="D60" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="E60" t="s">
+        <v>519</v>
+      </c>
+      <c r="F60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
+        <v>518</v>
+      </c>
+      <c r="I60" t="s">
+        <v>517</v>
       </c>
       <c r="O60" s="1">
         <v>39417.835300925923</v>
       </c>
       <c r="P60" s="1">
-        <v>39417.835300925923</v>
+        <v>39422.278171296297</v>
       </c>
       <c r="Q60" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="R60" t="s">
         <v>4</v>
+      </c>
+      <c r="S60" t="s">
+        <v>516</v>
       </c>
       <c r="T60" s="1">
         <v>39417.626967592594</v>
@@ -4495,13 +4650,13 @@
         <v>26</v>
       </c>
       <c r="J62" t="s">
+        <v>233</v>
+      </c>
+      <c r="K62" t="s">
         <v>234</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>235</v>
-      </c>
-      <c r="L62" t="s">
-        <v>236</v>
       </c>
       <c r="O62" s="1">
         <v>39418.229699074072</v>
@@ -4513,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="R62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T62" s="1">
         <v>39417.208333333336</v>
@@ -4533,22 +4688,22 @@
         <v>39418.806527777779</v>
       </c>
       <c r="D63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" t="s">
         <v>238</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>239</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>240</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>241</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>242</v>
-      </c>
-      <c r="I63" t="s">
-        <v>243</v>
       </c>
       <c r="O63" s="1">
         <v>39418.806539351855</v>
@@ -4563,7 +4718,7 @@
         <v>4</v>
       </c>
       <c r="S63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T63" s="1">
         <v>39418.598194444443</v>
@@ -4580,22 +4735,22 @@
         <v>39418.86681712963</v>
       </c>
       <c r="D64" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" t="s">
         <v>245</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>246</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>247</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>248</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>249</v>
-      </c>
-      <c r="I64" t="s">
-        <v>250</v>
       </c>
       <c r="O64" s="1">
         <v>39418.866828703707</v>
@@ -4610,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="S64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T64" s="1">
         <v>39418.658483796295</v>
@@ -4627,22 +4782,22 @@
         <v>39419.043634259258</v>
       </c>
       <c r="D65" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" t="s">
         <v>252</v>
       </c>
-      <c r="E65" t="s">
-        <v>253</v>
-      </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O65" s="1">
         <v>39419.043645833335</v>
@@ -4657,7 +4812,7 @@
         <v>4</v>
       </c>
       <c r="S65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T65" s="1">
         <v>39418.835300925923</v>
@@ -4677,19 +4832,19 @@
         <v>26</v>
       </c>
       <c r="E66" t="s">
+        <v>254</v>
+      </c>
+      <c r="F66" t="s">
         <v>255</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>256</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>257</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>258</v>
-      </c>
-      <c r="I66" t="s">
-        <v>259</v>
       </c>
       <c r="O66" s="1">
         <v>39419.043715277781</v>
@@ -4704,7 +4859,7 @@
         <v>4</v>
       </c>
       <c r="S66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T66" s="1">
         <v>39418.208333333336</v>
@@ -4724,19 +4879,19 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F67" t="s">
         <v>81</v>
       </c>
       <c r="G67" t="s">
+        <v>261</v>
+      </c>
+      <c r="H67" t="s">
         <v>262</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>263</v>
-      </c>
-      <c r="I67" t="s">
-        <v>264</v>
       </c>
       <c r="O67" s="1">
         <v>39419.134097222224</v>
@@ -4751,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="S67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T67" s="1">
         <v>39418.208333333336</v>
@@ -4771,13 +4926,13 @@
         <v>26</v>
       </c>
       <c r="J68" t="s">
+        <v>265</v>
+      </c>
+      <c r="K68" t="s">
+        <v>182</v>
+      </c>
+      <c r="L68" t="s">
         <v>266</v>
-      </c>
-      <c r="K68" t="s">
-        <v>183</v>
-      </c>
-      <c r="L68" t="s">
-        <v>267</v>
       </c>
       <c r="O68" s="1">
         <v>39419.134305555555</v>
@@ -4789,10 +4944,10 @@
         <v>3</v>
       </c>
       <c r="R68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T68" s="1">
         <v>39418.208333333336</v>
@@ -4812,13 +4967,13 @@
         <v>26</v>
       </c>
       <c r="J69" t="s">
+        <v>268</v>
+      </c>
+      <c r="K69" t="s">
         <v>269</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>270</v>
-      </c>
-      <c r="L69" t="s">
-        <v>271</v>
       </c>
       <c r="O69" s="1">
         <v>39419.138310185182</v>
@@ -4830,10 +4985,10 @@
         <v>3</v>
       </c>
       <c r="R69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T69" s="1">
         <v>39418.208333333336</v>
@@ -4853,13 +5008,13 @@
         <v>26</v>
       </c>
       <c r="J70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O70" s="1">
         <v>39419.153969907406</v>
@@ -4871,10 +5026,10 @@
         <v>3</v>
       </c>
       <c r="R70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T70" s="1">
         <v>39418.208333333336</v>
@@ -4894,10 +5049,10 @@
         <v>26</v>
       </c>
       <c r="M71" t="s">
+        <v>274</v>
+      </c>
+      <c r="N71" t="s">
         <v>275</v>
-      </c>
-      <c r="N71" t="s">
-        <v>276</v>
       </c>
       <c r="O71" s="1">
         <v>39419.196481481478</v>
@@ -4926,22 +5081,22 @@
         <v>39419.751157407409</v>
       </c>
       <c r="D72" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" t="s">
         <v>277</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>278</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>279</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>280</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>281</v>
-      </c>
-      <c r="I72" t="s">
-        <v>282</v>
       </c>
       <c r="O72" s="1">
         <v>39419.751168981478</v>
@@ -4956,7 +5111,7 @@
         <v>4</v>
       </c>
       <c r="S72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T72" s="1">
         <v>39419.542824074073</v>
@@ -4973,22 +5128,22 @@
         <v>39419.93240740741</v>
       </c>
       <c r="D73" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" t="s">
         <v>284</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>285</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>286</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>287</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>288</v>
-      </c>
-      <c r="I73" t="s">
-        <v>289</v>
       </c>
       <c r="O73" s="1">
         <v>39419.93241898148</v>
@@ -5003,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="S73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T73" s="1">
         <v>39419.724074074074</v>
@@ -5023,19 +5178,19 @@
         <v>26</v>
       </c>
       <c r="E74" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" t="s">
         <v>291</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>292</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>293</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>294</v>
-      </c>
-      <c r="I74" t="s">
-        <v>295</v>
       </c>
       <c r="O74" s="1">
         <v>39420.042291666665</v>
@@ -5050,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="S74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T74" s="1">
         <v>39419.208333333336</v>
@@ -5067,22 +5222,22 @@
         <v>39420.042685185188</v>
       </c>
       <c r="D75" t="s">
+        <v>296</v>
+      </c>
+      <c r="E75" t="s">
         <v>297</v>
-      </c>
-      <c r="E75" t="s">
-        <v>298</v>
       </c>
       <c r="F75" t="s">
         <v>54</v>
       </c>
       <c r="G75" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" t="s">
         <v>299</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>300</v>
-      </c>
-      <c r="I75" t="s">
-        <v>301</v>
       </c>
       <c r="O75" s="1">
         <v>39420.042685185188</v>
@@ -5097,7 +5252,7 @@
         <v>4</v>
       </c>
       <c r="S75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T75" s="1">
         <v>39419.834351851852</v>
@@ -5117,13 +5272,13 @@
         <v>26</v>
       </c>
       <c r="J76" t="s">
+        <v>302</v>
+      </c>
+      <c r="K76" t="s">
         <v>303</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>304</v>
-      </c>
-      <c r="L76" t="s">
-        <v>305</v>
       </c>
       <c r="O76" s="1">
         <v>39420.044212962966</v>
@@ -5135,10 +5290,10 @@
         <v>3</v>
       </c>
       <c r="R76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T76" s="1">
         <v>39419.208333333336</v>
@@ -5158,19 +5313,19 @@
         <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
       </c>
       <c r="G77" t="s">
+        <v>307</v>
+      </c>
+      <c r="H77" t="s">
         <v>308</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>309</v>
-      </c>
-      <c r="I77" t="s">
-        <v>310</v>
       </c>
       <c r="O77" s="1">
         <v>39420.044548611113</v>
@@ -5185,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="S77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T77" s="1">
         <v>39419.208333333336</v>
@@ -5205,19 +5360,19 @@
         <v>26</v>
       </c>
       <c r="E78" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" t="s">
         <v>312</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>313</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>314</v>
       </c>
-      <c r="H78" t="s">
-        <v>315</v>
-      </c>
       <c r="I78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O78" s="1">
         <v>39420.045902777776</v>
@@ -5232,7 +5387,7 @@
         <v>4</v>
       </c>
       <c r="S78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T78" s="1">
         <v>39419.208333333336</v>
@@ -5249,22 +5404,22 @@
         <v>39420.079791666663</v>
       </c>
       <c r="D79" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" t="s">
         <v>317</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>318</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>319</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>320</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>321</v>
-      </c>
-      <c r="I79" t="s">
-        <v>322</v>
       </c>
       <c r="O79" s="1">
         <v>39420.079791666663</v>
@@ -5279,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="S79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T79" s="1">
         <v>39419.871458333335</v>
@@ -5296,19 +5451,37 @@
         <v>39420.16337962963</v>
       </c>
       <c r="D80" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="E80" t="s">
+        <v>515</v>
+      </c>
+      <c r="F80" t="s">
+        <v>514</v>
+      </c>
+      <c r="G80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80" t="s">
+        <v>513</v>
+      </c>
+      <c r="I80" t="s">
+        <v>512</v>
       </c>
       <c r="O80" s="1">
         <v>39420.163391203707</v>
       </c>
       <c r="P80" s="1">
-        <v>39420.163391203707</v>
+        <v>39422.279224537036</v>
       </c>
       <c r="Q80" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="R80" t="s">
         <v>4</v>
+      </c>
+      <c r="S80" t="s">
+        <v>511</v>
       </c>
       <c r="T80" s="1">
         <v>39419.955046296294</v>
@@ -5325,22 +5498,22 @@
         <v>39420.669062499997</v>
       </c>
       <c r="D81" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" t="s">
         <v>325</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>326</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>327</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>328</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>329</v>
-      </c>
-      <c r="I81" t="s">
-        <v>330</v>
       </c>
       <c r="O81" s="1">
         <v>39420.669062499997</v>
@@ -5355,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="S81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T81" s="1">
         <v>39420.460729166669</v>
@@ -5372,22 +5545,22 @@
         <v>39420.669907407406</v>
       </c>
       <c r="D82" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" t="s">
         <v>332</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>333</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>334</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>335</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>336</v>
-      </c>
-      <c r="I82" t="s">
-        <v>337</v>
       </c>
       <c r="O82" s="1">
         <v>39420.669907407406</v>
@@ -5402,7 +5575,7 @@
         <v>4</v>
       </c>
       <c r="S82" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T82" s="1">
         <v>39420.461574074077</v>
@@ -5419,10 +5592,10 @@
         <v>39420.75340277778</v>
       </c>
       <c r="D83" t="s">
+        <v>338</v>
+      </c>
+      <c r="E83" t="s">
         <v>339</v>
-      </c>
-      <c r="E83" t="s">
-        <v>340</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -5431,10 +5604,10 @@
         <v>9</v>
       </c>
       <c r="H83" t="s">
+        <v>340</v>
+      </c>
+      <c r="I83" t="s">
         <v>341</v>
-      </c>
-      <c r="I83" t="s">
-        <v>342</v>
       </c>
       <c r="O83" s="1">
         <v>39420.75341435185</v>
@@ -5449,7 +5622,7 @@
         <v>4</v>
       </c>
       <c r="S83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T83" s="1">
         <v>39420.545069444444</v>
@@ -5466,22 +5639,22 @@
         <v>39420.792430555557</v>
       </c>
       <c r="D84" t="s">
+        <v>343</v>
+      </c>
+      <c r="E84" t="s">
         <v>344</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>345</v>
-      </c>
-      <c r="F84" t="s">
-        <v>346</v>
       </c>
       <c r="G84" t="s">
         <v>54</v>
       </c>
       <c r="H84" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84" t="s">
         <v>347</v>
-      </c>
-      <c r="I84" t="s">
-        <v>348</v>
       </c>
       <c r="O84" s="1">
         <v>39420.792442129627</v>
@@ -5496,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="S84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T84" s="1">
         <v>39420.584097222221</v>
@@ -5513,22 +5686,22 @@
         <v>39420.862083333333</v>
       </c>
       <c r="D85" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85" t="s">
         <v>350</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>351</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>352</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>353</v>
       </c>
-      <c r="H85" t="s">
-        <v>354</v>
-      </c>
       <c r="I85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O85" s="1">
         <v>39420.86209490741</v>
@@ -5543,7 +5716,7 @@
         <v>4</v>
       </c>
       <c r="S85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T85" s="1">
         <v>39420.653749999998</v>
@@ -5560,22 +5733,22 @@
         <v>39420.865393518521</v>
       </c>
       <c r="D86" t="s">
+        <v>355</v>
+      </c>
+      <c r="E86" t="s">
         <v>356</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>357</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>358</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>359</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>360</v>
-      </c>
-      <c r="I86" t="s">
-        <v>361</v>
       </c>
       <c r="O86" s="1">
         <v>39420.865393518521</v>
@@ -5590,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="S86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T86" s="1">
         <v>39420.657060185185</v>
@@ -5607,22 +5780,22 @@
         <v>39421.043993055559</v>
       </c>
       <c r="D87" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" t="s">
         <v>363</v>
-      </c>
-      <c r="E87" t="s">
-        <v>364</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H87" t="s">
         <v>56</v>
       </c>
       <c r="I87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O87" s="1">
         <v>39421.044004629628</v>
@@ -5637,7 +5810,7 @@
         <v>4</v>
       </c>
       <c r="S87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T87" s="1">
         <v>39420.835659722223</v>
@@ -5657,19 +5830,19 @@
         <v>26</v>
       </c>
       <c r="E88" t="s">
+        <v>367</v>
+      </c>
+      <c r="F88" t="s">
         <v>368</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>369</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>370</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>371</v>
-      </c>
-      <c r="I88" t="s">
-        <v>372</v>
       </c>
       <c r="O88" s="1">
         <v>39421.067152777781</v>
@@ -5684,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="S88" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T88" s="1">
         <v>39420.208333333336</v>
@@ -5704,19 +5877,19 @@
         <v>26</v>
       </c>
       <c r="E89" t="s">
+        <v>373</v>
+      </c>
+      <c r="F89" t="s">
         <v>374</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>375</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>376</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>377</v>
-      </c>
-      <c r="I89" t="s">
-        <v>378</v>
       </c>
       <c r="O89" s="1">
         <v>39421.085636574076</v>
@@ -5731,7 +5904,7 @@
         <v>4</v>
       </c>
       <c r="S89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T89" s="1">
         <v>39420.208333333336</v>
@@ -5748,22 +5921,22 @@
         <v>39421.10596064815</v>
       </c>
       <c r="D90" t="s">
+        <v>379</v>
+      </c>
+      <c r="E90" t="s">
         <v>380</v>
-      </c>
-      <c r="E90" t="s">
-        <v>381</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H90" t="s">
         <v>56</v>
       </c>
       <c r="I90" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O90" s="1">
         <v>39421.10597222222</v>
@@ -5778,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="S90" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T90" s="1">
         <v>39420.897627314815</v>
@@ -5795,22 +5968,22 @@
         <v>39421.10597222222</v>
       </c>
       <c r="D91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O91" s="1">
         <v>39421.105983796297</v>
@@ -5825,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="S91" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T91" s="1">
         <v>39420.897638888891</v>
@@ -5842,22 +6015,22 @@
         <v>39421.696770833332</v>
       </c>
       <c r="D92" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" t="s">
         <v>387</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>388</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>389</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>390</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>391</v>
-      </c>
-      <c r="I92" t="s">
-        <v>392</v>
       </c>
       <c r="O92" s="1">
         <v>39421.696782407409</v>
@@ -5872,13 +6045,13 @@
         <v>4</v>
       </c>
       <c r="S92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T92" s="1">
         <v>39421.488437499997</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="105">
+    <row r="93" spans="1:20" ht="90">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5892,19 +6065,19 @@
         <v>26</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>394</v>
+        <v>510</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>395</v>
+        <v>509</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>397</v>
+        <v>507</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>398</v>
+        <v>506</v>
       </c>
       <c r="O93" s="1">
         <v>39421.783888888887</v>
@@ -5919,7 +6092,7 @@
         <v>4</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="T93" s="1">
         <v>39420.208333333336</v>
@@ -5936,7 +6109,7 @@
         <v>39421.816087962965</v>
       </c>
       <c r="D94" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="O94" s="1">
         <v>39421.816087962965</v>
@@ -5994,22 +6167,22 @@
         <v>39421.898645833331</v>
       </c>
       <c r="D96" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E96" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F96" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G96" t="s">
         <v>9</v>
       </c>
       <c r="H96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I96" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="O96" s="1">
         <v>39421.898645833331</v>
@@ -6024,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="S96" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="T96" s="1">
         <v>39421.690312500003</v>
@@ -6041,22 +6214,22 @@
         <v>39421.992384259262</v>
       </c>
       <c r="D97" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E97" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G97" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H97" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I97" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="O97" s="1">
         <v>39421.992384259262</v>
@@ -6071,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="S97" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="T97" s="1">
         <v>39421.784050925926</v>
@@ -6088,22 +6261,22 @@
         <v>39421.996076388888</v>
       </c>
       <c r="D98" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E98" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G98" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H98" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I98" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="O98" s="1">
         <v>39421.996076388888</v>
@@ -6118,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="S98" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="T98" s="1">
         <v>39421.787743055553</v>
@@ -6138,13 +6311,13 @@
         <v>26</v>
       </c>
       <c r="J99" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K99" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="L99" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="O99" s="1">
         <v>39422.042314814818</v>
@@ -6156,10 +6329,10 @@
         <v>3</v>
       </c>
       <c r="R99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S99" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="T99" s="1">
         <v>39421.208333333336</v>
@@ -6176,22 +6349,22 @@
         <v>39422.136122685188</v>
       </c>
       <c r="D100" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E100" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H100" t="s">
         <v>49</v>
       </c>
       <c r="I100" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="O100" s="1">
         <v>39422.136134259257</v>
@@ -6206,14 +6379,431 @@
         <v>4</v>
       </c>
       <c r="S100" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="T100" s="1">
         <v>39421.927789351852</v>
       </c>
     </row>
+    <row r="101" spans="1:20">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1">
+        <v>39420.208333333336</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="O101" s="1">
+        <v>39422.279270833336</v>
+      </c>
+      <c r="P101" s="1">
+        <v>39422.279270833336</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>42</v>
+      </c>
+      <c r="R101" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="1">
+        <v>39420.208333333336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1">
+        <v>39420.208333333336</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" t="s">
+        <v>504</v>
+      </c>
+      <c r="F102" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" t="s">
+        <v>54</v>
+      </c>
+      <c r="H102" t="s">
+        <v>165</v>
+      </c>
+      <c r="I102" t="s">
+        <v>503</v>
+      </c>
+      <c r="O102" s="1">
+        <v>39422.279606481483</v>
+      </c>
+      <c r="P102" s="1">
+        <v>39422.280439814815</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" t="s">
+        <v>502</v>
+      </c>
+      <c r="T102" s="1">
+        <v>39420.208333333336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103" s="1">
+        <v>39422.767094907409</v>
+      </c>
+      <c r="D103" t="s">
+        <v>501</v>
+      </c>
+      <c r="E103" t="s">
+        <v>500</v>
+      </c>
+      <c r="F103" t="s">
+        <v>199</v>
+      </c>
+      <c r="G103" t="s">
+        <v>499</v>
+      </c>
+      <c r="H103" t="s">
+        <v>498</v>
+      </c>
+      <c r="I103" t="s">
+        <v>497</v>
+      </c>
+      <c r="O103" s="1">
+        <v>39422.767094907409</v>
+      </c>
+      <c r="P103" s="1">
+        <v>39423.050300925926</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>3</v>
+      </c>
+      <c r="R103" t="s">
+        <v>4</v>
+      </c>
+      <c r="S103" t="s">
+        <v>496</v>
+      </c>
+      <c r="T103" s="1">
+        <v>39422.558761574073</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104" s="1">
+        <v>39422.767245370371</v>
+      </c>
+      <c r="D104" t="s">
+        <v>495</v>
+      </c>
+      <c r="E104" t="s">
+        <v>494</v>
+      </c>
+      <c r="F104" t="s">
+        <v>81</v>
+      </c>
+      <c r="G104" t="s">
+        <v>493</v>
+      </c>
+      <c r="H104" t="s">
+        <v>492</v>
+      </c>
+      <c r="I104" t="s">
+        <v>360</v>
+      </c>
+      <c r="O104" s="1">
+        <v>39422.767245370371</v>
+      </c>
+      <c r="P104" s="1">
+        <v>39423.05945601852</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>3</v>
+      </c>
+      <c r="R104" t="s">
+        <v>4</v>
+      </c>
+      <c r="S104" t="s">
+        <v>491</v>
+      </c>
+      <c r="T104" s="1">
+        <v>39422.558912037035</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105" s="1">
+        <v>39423.026689814818</v>
+      </c>
+      <c r="D105" t="s">
+        <v>490</v>
+      </c>
+      <c r="O105" s="1">
+        <v>39423.026689814818</v>
+      </c>
+      <c r="P105" s="1">
+        <v>39423.026689814818</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>42</v>
+      </c>
+      <c r="R105" t="s">
+        <v>4</v>
+      </c>
+      <c r="T105" s="1">
+        <v>39422.818356481483</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>12</v>
+      </c>
+      <c r="C106" s="1">
+        <v>39423.042314814818</v>
+      </c>
+      <c r="D106" t="s">
+        <v>489</v>
+      </c>
+      <c r="E106" t="s">
+        <v>488</v>
+      </c>
+      <c r="F106" t="s">
+        <v>487</v>
+      </c>
+      <c r="G106" t="s">
+        <v>486</v>
+      </c>
+      <c r="H106" t="s">
+        <v>485</v>
+      </c>
+      <c r="I106" t="s">
+        <v>484</v>
+      </c>
+      <c r="O106" s="1">
+        <v>39423.042326388888</v>
+      </c>
+      <c r="P106" s="1">
+        <v>39423.060798611114</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>3</v>
+      </c>
+      <c r="R106" t="s">
+        <v>4</v>
+      </c>
+      <c r="S106" t="s">
+        <v>483</v>
+      </c>
+      <c r="T106" s="1">
+        <v>39422.833981481483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107" s="1">
+        <v>39423.043310185189</v>
+      </c>
+      <c r="D107" t="s">
+        <v>482</v>
+      </c>
+      <c r="E107" t="s">
+        <v>481</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" t="s">
+        <v>480</v>
+      </c>
+      <c r="I107" t="s">
+        <v>360</v>
+      </c>
+      <c r="O107" s="1">
+        <v>39423.043310185189</v>
+      </c>
+      <c r="P107" s="1">
+        <v>39423.055046296293</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>3</v>
+      </c>
+      <c r="R107" t="s">
+        <v>4</v>
+      </c>
+      <c r="S107" t="s">
+        <v>479</v>
+      </c>
+      <c r="T107" s="1">
+        <v>39422.834976851853</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1">
+        <v>39422.208333333336</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" t="s">
+        <v>478</v>
+      </c>
+      <c r="F108" t="s">
+        <v>477</v>
+      </c>
+      <c r="G108" t="s">
+        <v>476</v>
+      </c>
+      <c r="H108" t="s">
+        <v>475</v>
+      </c>
+      <c r="I108" t="s">
+        <v>474</v>
+      </c>
+      <c r="O108" s="1">
+        <v>39423.044814814813</v>
+      </c>
+      <c r="P108" s="1">
+        <v>39423.046331018515</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>3</v>
+      </c>
+      <c r="R108" t="s">
+        <v>4</v>
+      </c>
+      <c r="S108" t="s">
+        <v>473</v>
+      </c>
+      <c r="T108" s="1">
+        <v>39422.208333333336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>13</v>
+      </c>
+      <c r="C109" s="1">
+        <v>39423.208333333336</v>
+      </c>
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" t="s">
+        <v>472</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" t="s">
+        <v>360</v>
+      </c>
+      <c r="I109" t="s">
+        <v>471</v>
+      </c>
+      <c r="O109" s="1">
+        <v>39423.055277777778</v>
+      </c>
+      <c r="P109" s="1">
+        <v>39423.056701388887</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>3</v>
+      </c>
+      <c r="R109" t="s">
+        <v>4</v>
+      </c>
+      <c r="S109" t="s">
+        <v>470</v>
+      </c>
+      <c r="T109" s="1">
+        <v>39423.208333333336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1">
+        <v>39423.208333333336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="O110" s="1">
+        <v>39423.060949074075</v>
+      </c>
+      <c r="P110" s="1">
+        <v>39423.060949074075</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>42</v>
+      </c>
+      <c r="R110" t="s">
+        <v>4</v>
+      </c>
+      <c r="T110" s="1">
+        <v>39423.208333333336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6238,25 +6828,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -6275,14 +6865,14 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -6290,25 +6880,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6319,10 +6909,10 @@
         <v>16789781547</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E2" s="1">
         <v>39402.725312499999</v>
@@ -6342,10 +6932,10 @@
         <v>14124785168</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E3" s="1">
         <v>39402.867569444446</v>
@@ -6365,10 +6955,10 @@
         <v>19199950334</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E4" s="1">
         <v>39408.267048611109</v>
@@ -6388,10 +6978,10 @@
         <v>14128180588</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E5" s="1">
         <v>39411.11414351852</v>
@@ -6411,10 +7001,10 @@
         <v>17165980062</v>
       </c>
       <c r="C6" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E6" s="1">
         <v>39413.631898148145</v>
@@ -6434,10 +7024,10 @@
         <v>16102917695</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E7" s="1">
         <v>39416.92046296296</v>
@@ -6457,10 +7047,10 @@
         <v>14088320815</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E8" s="1">
         <v>39416.920624999999</v>
@@ -6480,10 +7070,10 @@
         <v>14123045680</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D9" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E9" s="1">
         <v>39416.922442129631</v>
@@ -6503,10 +7093,10 @@
         <v>13474948474</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D10" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E10" s="1">
         <v>39416.924664351849</v>
@@ -6526,10 +7116,10 @@
         <v>14129791709</v>
       </c>
       <c r="C11" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D11" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E11" s="1">
         <v>39416.926678240743</v>
@@ -6549,10 +7139,10 @@
         <v>14088232745</v>
       </c>
       <c r="C12" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D12" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E12" s="1">
         <v>39416.933541666665</v>
@@ -6572,10 +7162,10 @@
         <v>17248167968</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E13" s="1">
         <v>39416.981041666666</v>
@@ -6595,10 +7185,10 @@
         <v>17247994355</v>
       </c>
       <c r="C14" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D14" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E14" s="1">
         <v>39417.09412037037</v>
@@ -6618,10 +7208,10 @@
         <v>16127019722</v>
       </c>
       <c r="C15" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E15" s="1">
         <v>39417.275856481479</v>
